--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67790E48-E09D-4E59-B148-B9179579D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B78633-7F33-4F46-9364-DDD1067C8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="75" windowWidth="28800" windowHeight="14745" tabRatio="780" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="4272" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -27,17 +27,20 @@
     <sheet name="Processes_BASE" sheetId="31" r:id="rId12"/>
     <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId13"/>
     <sheet name="ProcData_FCR" sheetId="56" r:id="rId14"/>
-    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId15"/>
-    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId16"/>
-    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId17"/>
-    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId18"/>
-    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId19"/>
-    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId20"/>
-    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId21"/>
-    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId22"/>
+    <sheet name="ProcData_FCR - PAMS" sheetId="61" r:id="rId15"/>
+    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId16"/>
+    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId17"/>
+    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId18"/>
+    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId19"/>
+    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId20"/>
+    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId21"/>
+    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId22"/>
+    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId23"/>
   </sheets>
   <definedNames>
+    <definedName name="FA_PAMS_index">Index!$J$5</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="14" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -104,6 +107,30 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ken Noble</author>
+  </authors>
+  <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{DAB1004E-8755-4FCC-9D68-AC552E841706}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If Process Activity is: Output-based, leave blank.
+Input-based, insert I.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ken Noble</author>
@@ -177,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="257">
   <si>
     <t>Comment</t>
   </si>
@@ -990,6 +1017,30 @@
   </si>
   <si>
     <t>Process Emissions FerroChrome South Africa</t>
+  </si>
+  <si>
+    <t>PAMS</t>
+  </si>
+  <si>
+    <t>Active:</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>description like in TCH_IND</t>
+  </si>
+  <si>
+    <t>by 2030</t>
+  </si>
+  <si>
+    <t>to elec only</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1715,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1952,6 +2003,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -5107,6 +5160,963 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>842010</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="cmdTechNameAndDesc" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157697"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F7A94A-9AEC-448F-982D-9CB5891BB2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="257175"/>
+          <a:ext cx="1866900" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="cmdCommIN" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157698"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDC961A-0128-483B-B393-1BABFD949F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4819650" y="257175"/>
+          <a:ext cx="619125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="cmdCommOUT" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157699"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B6867D-D71D-4F57-B898-D885B7491444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="257175"/>
+          <a:ext cx="619125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>422910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="cmdAddParameter" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157700"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9E382F-0E15-4FF6-AE79-7EB8C429BCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="476250"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="cmdAddParamQualifier1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157701"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F9CCFF-2D0F-4E60-9AE5-57002B15C421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="895350"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="cmdCheckTechDataSheet" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157702"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760A3283-7B86-4095-8093-F03733B473BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="257175"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="cmdAddParamQualifier2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s157703"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE3EA4C-ADA6-4574-9C35-EC0DE880CA3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="1228725"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>842010</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="cmdTechNameAndDesc">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8E142C-2ADB-4649-AD01-EBF6766AB52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="257175"/>
+          <a:ext cx="1866900" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="cmdCommIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68A6156-5D16-400A-A35A-F8F99F6C1ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4819650" y="257175"/>
+          <a:ext cx="619125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="cmdCommOUT">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E541FD7B-E81A-4D02-9464-9C8E84A6AD3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5638800" y="257175"/>
+          <a:ext cx="619125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>422910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="cmdAddParameter">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354157B9-7CE2-4F7C-B13F-2FA7194EFEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="476250"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="cmdAddParamQualifier1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D045FD5-98BA-4E0F-B690-27C6010386A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="895350"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="cmdCheckTechDataSheet">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6005EE13-0871-4C99-A816-19B5FF3F3CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="257175"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="cmdAddParamQualifier2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2E68DB-03CF-43F1-BC2C-632F6F9C01B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="1228725"/>
+          <a:ext cx="809625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6195,7 +7205,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6744,7 +7754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8109,7 +9119,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9202,7 +10212,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10567,7 +11577,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11898,1099 +12908,6 @@
         <a:xfrm>
           <a:off x="19050" y="542925"/>
           <a:ext cx="819150" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61442" name="cmdCheckTIDTradeSheet" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61442"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61443" name="cmdSpecifyParameter" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61443"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61444" name="cmdSpecifyArg1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61444"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000004F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61445" name="cmdSpecifyArg2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61445"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000005F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61446" name="cmdSpecifyArg3" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61446"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000006F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61447" name="cmdSpecifyArg4" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61447"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000007F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61448" name="cmdSpecifyArg5" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61448"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000008F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61449" name="cmdSpecifyArg6" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61449"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000009F00000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="cmdCheckTIDTradeSheet">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE67A060-C88F-4951-BD9F-BF84866539AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="285750"/>
-          <a:ext cx="819150" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="cmdSpecifyParameter">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E85F9BC-6A63-4102-922B-5F718AB72A65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1590675" y="495300"/>
-          <a:ext cx="819150" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="cmdSpecifyArg1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAF8459-9485-4533-AC41-674A41E17EB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2390775" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="cmdSpecifyArg2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70078D9D-8226-47C9-A210-B2107EF225DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3019425" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="cmdSpecifyArg3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AEA346-E5D7-4CED-A527-CDF07EE38434}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3638550" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="cmdSpecifyArg4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3216FB0F-236E-4EC7-8C81-2430BF5226E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4248150" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="cmdSpecifyArg5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820EFD9B-E365-4EF1-A5FC-29BA8B47774E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4857750" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="cmdSpecifyArg6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAC6C77-992F-42FD-A0C5-587D0DF77CF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5467350" y="495300"/>
-          <a:ext cx="619125" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13075,6 +12992,1099 @@
 </file>
 
 <file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61442" name="cmdCheckTIDTradeSheet" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61442"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61443" name="cmdSpecifyParameter" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61443"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61444" name="cmdSpecifyArg1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61444"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000004F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61445" name="cmdSpecifyArg2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61445"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000005F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61446" name="cmdSpecifyArg3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61446"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000006F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61447" name="cmdSpecifyArg4" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61447"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000007F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61448" name="cmdSpecifyArg5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61448"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000008F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61449" name="cmdSpecifyArg6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s61449"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000009F00000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="cmdCheckTIDTradeSheet">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE67A060-C88F-4951-BD9F-BF84866539AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525" y="285750"/>
+          <a:ext cx="819150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="cmdSpecifyParameter">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E85F9BC-6A63-4102-922B-5F718AB72A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1590675" y="495300"/>
+          <a:ext cx="819150" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="cmdSpecifyArg1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAF8459-9485-4533-AC41-674A41E17EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2390775" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="cmdSpecifyArg2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70078D9D-8226-47C9-A210-B2107EF225DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3019425" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="cmdSpecifyArg3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AEA346-E5D7-4CED-A527-CDF07EE38434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3638550" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="cmdSpecifyArg4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3216FB0F-236E-4EC7-8C81-2430BF5226E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4248150" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="cmdSpecifyArg5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820EFD9B-E365-4EF1-A5FC-29BA8B47774E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4857750" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="cmdSpecifyArg6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAC6C77-992F-42FD-A0C5-587D0DF77CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5467350" y="495300"/>
+          <a:ext cx="619125" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18211,7 +19221,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -18868,10 +19878,10 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
+      <selection pane="bottomRight" activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19175,6 +20185,18 @@
       </c>
       <c r="Y7" s="61" t="s">
         <v>44</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>2012</v>
       </c>
       <c r="AD7" s="12" t="s">
         <v>44</v>
@@ -19663,6 +20685,179 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8003F-712D-4095-8A34-A0EDC8E94F8B}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="9" width="7.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>ProcData_FCR - PAMS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="120" t="str">
+        <f>H4</f>
+        <v>PRC_ACTFLO</v>
+      </c>
+      <c r="J4" s="120" t="str">
+        <f>I4</f>
+        <v>PRC_ACTFLO</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="H5" s="12" t="str">
+        <f>E9</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="I5" s="120" t="str">
+        <f>H5</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="J5" s="120" t="str">
+        <f>I5</f>
+        <v>IFAELC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="str">
+        <f>Processes_BASE!A8</f>
+        <v>* Conversion technologies</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="50" t="str">
+        <f>Processes_BASE!B10</f>
+        <v>IFCEAF-E</v>
+      </c>
+      <c r="C9" s="50" t="str">
+        <f>Processes_BASE!C10</f>
+        <v>FerroChrome existing</v>
+      </c>
+      <c r="D9" s="50" t="str">
+        <f>Processes_BASE!D10</f>
+        <v>PJ,PJa</v>
+      </c>
+      <c r="E9" s="128" t="str">
+        <f>RES!F2</f>
+        <v>IFAELC</v>
+      </c>
+      <c r="F9" s="129" t="str">
+        <f>ProcData_FCR!F13</f>
+        <v>IFACR</v>
+      </c>
+      <c r="H9" s="165">
+        <f>ProcData_FCR!AB12</f>
+        <v>12.360988518943744</v>
+      </c>
+      <c r="I9" s="124">
+        <f>H9</f>
+        <v>12.360988518943744</v>
+      </c>
+      <c r="J9" s="45">
+        <f>I9*(1-Index!$M$11)</f>
+        <v>11.742939092996556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X9"/>
@@ -20013,7 +21208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G15"/>
@@ -20157,7 +21352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:R7"/>
@@ -20226,7 +21421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I7"/>
@@ -20285,7 +21480,219 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="B3:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f ca="1">Commodities_BASE!A2</f>
+        <v>Commodities_BASE</v>
+      </c>
+      <c r="E7" s="126">
+        <f t="shared" ref="E7:E11" si="0">$E$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f ca="1">CommData_BASE!A2</f>
+        <v>CommData_BASE</v>
+      </c>
+      <c r="E8" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f ca="1">Processes_BASE!A2</f>
+        <v>Processes_BASE</v>
+      </c>
+      <c r="E9" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M9" s="167">
+        <v>0.05</v>
+      </c>
+      <c r="N9" s="94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f ca="1">'ProcData_FCR - PAMS'!A2</f>
+        <v>ProcData_FCR - PAMS</v>
+      </c>
+      <c r="E10" s="126">
+        <f>IF(FA_PAMS_index=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J10" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="168">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N10" s="94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f ca="1">ProcData_FCR!A2</f>
+        <v>ProcData_FCR</v>
+      </c>
+      <c r="E11" s="126">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>INDEX(M9:M10,MATCH(J6,I9:I10,0))</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E12" s="126"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="126"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="126"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="126"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="126"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="126"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="126"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="126"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="126"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="126"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="126"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="126"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5" xr:uid="{E74D974D-6550-493B-81CA-F05F9D108415}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6" xr:uid="{500CD5B8-8189-4BE3-97D6-B1FEF71A1652}">
+      <formula1>$I$9:$I$10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R7"/>
@@ -20355,161 +21762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C52CBF-4FE0-46D1-B70B-95F07BE7C2F3}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="B3:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="str">
-        <f ca="1">Commodities_BASE!A2</f>
-        <v>Commodities_BASE</v>
-      </c>
-      <c r="E7" s="126">
-        <f t="shared" ref="E7:E11" si="0">$E$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="str">
-        <f ca="1">CommData_BASE!A2</f>
-        <v>CommData_BASE</v>
-      </c>
-      <c r="E8" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="str">
-        <f ca="1">Processes_BASE!A2</f>
-        <v>Processes_BASE</v>
-      </c>
-      <c r="E9" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="str">
-        <f ca="1">ProcData_FCR!A2</f>
-        <v>ProcData_FCR</v>
-      </c>
-      <c r="E11" s="126">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="126"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="126"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="126"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="126"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="126"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="126"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="126"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="126"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="126"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="126"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="126"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="126"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="126"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="126"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="126"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="126"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:S9"/>
@@ -20591,7 +21844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:J9"/>
@@ -20663,7 +21916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:S9"/>
@@ -20752,7 +22005,7 @@
   <dimension ref="C1:AE105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B78633-7F33-4F46-9364-DDD1067C8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4287A70-C76B-4233-B4B4-AD7B8C100EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4272" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANSv2-692-Home" sheetId="9" r:id="rId1"/>
@@ -21488,7 +21488,7 @@
   <dimension ref="B3:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_FCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4287A70-C76B-4233-B4B4-AD7B8C100EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB82886-C7F0-48B2-8005-CEEB46B18B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,9 @@
     <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId22"/>
     <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId23"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId24"/>
+  </externalReferences>
   <definedNames>
     <definedName name="FA_PAMS_index">Index!$J$5</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -201,6 +204,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18748,6 +18773,354 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Index"/>
+      <sheetName val="ChangeLog"/>
+      <sheetName val="NameConv"/>
+      <sheetName val="Industry desription"/>
+      <sheetName val="SIC codes"/>
+      <sheetName val="REGIONS"/>
+      <sheetName val="Detailed GDP STATSSA"/>
+      <sheetName val="GDP STATSSA"/>
+      <sheetName val="Output compiled"/>
+      <sheetName val="IND GDP statssa 2"/>
+      <sheetName val="Ind output Mark"/>
+      <sheetName val="Ind mining output STATSSA"/>
+      <sheetName val="Ind Man output STATSSA"/>
+      <sheetName val="supply and use tables"/>
+      <sheetName val="DOE 2006 native units"/>
+      <sheetName val="2006-2009"/>
+      <sheetName val="Industry VA"/>
+      <sheetName val="Sources"/>
+      <sheetName val="1992-2006 industry"/>
+      <sheetName val="DoE2013 Industry EB"/>
+      <sheetName val="digest "/>
+      <sheetName val="DMR1"/>
+      <sheetName val="mining general info"/>
+      <sheetName val="I&amp;S - prod"/>
+      <sheetName val="I&amp;S - prod 2"/>
+      <sheetName val="I&amp;S - prod 3"/>
+      <sheetName val="End uses"/>
+      <sheetName val="EIA end use"/>
+      <sheetName val="Aluminium"/>
+      <sheetName val="Eskom sales data"/>
+      <sheetName val="Eskom Annual YB"/>
+      <sheetName val="eskom yb sector sales"/>
+      <sheetName val="NERSA Elec"/>
+      <sheetName val="REPORT TABLES"/>
+      <sheetName val="Tech Efficiencies"/>
+      <sheetName val="Coal prices"/>
+      <sheetName val="Electricity prices"/>
+      <sheetName val="ELEC CALCS ADRIAN IGNORE"/>
+      <sheetName val="FA-Items"/>
+      <sheetName val="FA-TSData"/>
+      <sheetName val="FA-TIDData"/>
+      <sheetName val="FerroAlloys"/>
+      <sheetName val="Aluminium - Items"/>
+      <sheetName val="Aluminium - TIDData"/>
+      <sheetName val="Aluminium - TSData"/>
+      <sheetName val="Aluminium Data"/>
+      <sheetName val="NMM-Items"/>
+      <sheetName val="NMM-TSData"/>
+      <sheetName val="NMM-TIDData"/>
+      <sheetName val="NMM data"/>
+      <sheetName val="Coking coal"/>
+      <sheetName val="COGEN"/>
+      <sheetName val="Payback from EIA"/>
+      <sheetName val="SasolGasSales"/>
+      <sheetName val="2012 SATIM EB"/>
+      <sheetName val="2017 SATIM EB"/>
+      <sheetName val="IND old - 2006BY"/>
+      <sheetName val="IND"/>
+      <sheetName val="IND2017"/>
+      <sheetName val="PAMS central control panel"/>
+      <sheetName val="ITEMS_Tech"/>
+      <sheetName val="ITEMS_Comm"/>
+      <sheetName val="TS DTech"/>
+      <sheetName val="TS DMARK"/>
+      <sheetName val="TID DTech"/>
+      <sheetName val="TS BYDem"/>
+      <sheetName val="TS COMFRN"/>
+      <sheetName val="TS COMFR"/>
+      <sheetName val="TS COMFRN_10"/>
+      <sheetName val="TS COMFR_10"/>
+      <sheetName val="TS ETech"/>
+      <sheetName val="TID ETech"/>
+      <sheetName val="TS GTech"/>
+      <sheetName val="TID GTech"/>
+      <sheetName val="TS FTech"/>
+      <sheetName val="TID FTech"/>
+      <sheetName val="TS Emiss"/>
+      <sheetName val="TID Emiss"/>
+      <sheetName val="AFA"/>
+      <sheetName val="Sc1 Standards"/>
+      <sheetName val="Sc2 Audits"/>
+      <sheetName val="Sc3 En Man"/>
+      <sheetName val="Sc4 Accreditation"/>
+      <sheetName val="Sc5 Education"/>
+      <sheetName val="Sc6 NEEA"/>
+      <sheetName val="Sc7 Finance"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="pamsindex" refersTo="='PAMS central control panel'!$C$2"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Agriculture, forestry and fishing</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>1994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>FMP20000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="C2">
+            <v>813472</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
+        <row r="2">
+          <cell r="C2">
+            <v>1992</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="C2">
+            <v>1988</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="2">
+          <cell r="C2">
+            <v>1996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IFAEAF_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="39">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IALPOT_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="43">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="44">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>UC-INM-KLD</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50">
+        <row r="2">
+          <cell r="C2">
+            <v>2001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>High Temperature Heat</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="53">
+        <row r="2">
+          <cell r="C2">
+            <v>2006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59">
+        <row r="2">
+          <cell r="C2" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="80">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="81">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="82">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="83">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="84">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="85">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21488,7 +21861,7 @@
   <dimension ref="B3:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21528,7 +21901,8 @@
       <c r="I5" t="s">
         <v>250</v>
       </c>
-      <c r="J5" t="b">
+      <c r="J5" t="b" cm="1">
+        <f t="array" ref="J5">[1]!pamsindex</f>
         <v>0</v>
       </c>
     </row>
@@ -21679,10 +22053,7 @@
       <c r="E27" s="126"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5" xr:uid="{E74D974D-6550-493B-81CA-F05F9D108415}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6" xr:uid="{500CD5B8-8189-4BE3-97D6-B1FEF71A1652}">
       <formula1>$I$9:$I$10</formula1>
     </dataValidation>
